--- a/biology/Zoologie/Inia/Inia.xlsx
+++ b/biology/Zoologie/Inia/Inia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Inia est un genre de mammifères cétacés d'eau douce.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,14 +551,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En 2017, Mammal Species of the World ne distingue qu'une espèce comptant trois sous-espèces :
 Inia geoffrensis
 Inia geoffrensis geoffrensis
 Inia geoffrensis boliviensis
 Inia geoffrensis humboldtiana
-World Register of Marine Species                               (7 juillet 2017)[2] attribue à la sous-espèce boliviensis le rang d'espèce à part entière et ajoute une espèce décrite en 2014 :
+World Register of Marine Species                               (7 juillet 2017) attribue à la sous-espèce boliviensis le rang d'espèce à part entière et ajoute une espèce décrite en 2014 :
 Inia araguaiaensis Hrbek, Farias, Dutra &amp; da Silva, 2014
 Inia boliviensis d'Orbigny, 1834
 Inia geoffrensis (de Blainville, 1817)</t>
